--- a/Mifos Automation Excels/Client/2581-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-AMT-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2581-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-AMT-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -197,16 +192,16 @@
     <t>Accrual</t>
   </si>
   <si>
-    <t>$ 537.27</t>
-  </si>
-  <si>
     <t>$ 1,000</t>
+  </si>
+  <si>
+    <t>$ 543</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,7 +356,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,26 +450,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,23 +485,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -861,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
@@ -1536,7 +1497,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,13 +1663,13 @@
         <v>55</v>
       </c>
       <c r="E5" s="6">
-        <v>537.27</v>
+        <v>543</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
       </c>
       <c r="G5" s="6">
-        <v>537.27</v>
+        <v>543</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -1875,7 +1836,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,7 +1928,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="18" t="s">
@@ -1996,8 +1957,8 @@
       <c r="G4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>57</v>
+      <c r="H4" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2119,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,8 +2173,8 @@
       <c r="F3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>36</v>
+      <c r="G3" t="s">
+        <v>53</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="20" t="s">
@@ -2257,7 +2218,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,8 +2286,8 @@
       <c r="G2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>56</v>
+      <c r="H2" s="23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2351,11 +2312,12 @@
       <c r="G3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="22" t="s">
-        <v>56</v>
+      <c r="I3" s="23" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>